--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.012420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.012420.xlsx_with_dialog_acts.xlsx
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3499,12 +3499,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4003,12 +4003,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5981,12 +5981,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6191,12 +6191,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6233,12 +6233,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6527,12 +6527,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7031,12 +7031,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8333,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8417,12 +8417,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8543,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8631,12 +8631,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8845,12 +8845,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9223,12 +9223,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9689,12 +9689,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9983,12 +9983,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10025,12 +10025,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10281,12 +10281,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10365,12 +10365,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10491,12 +10491,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10659,12 +10659,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
